--- a/Android/ExcelData/SkillLevelUp.xlsx
+++ b/Android/ExcelData/SkillLevelUp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Design\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D18DEE-9F78-4A3B-9126-907A43734292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A58E72-4BB0-4983-A7F1-EDB58EB1928E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17565" yWindow="1455" windowWidth="17595" windowHeight="18900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1590" yWindow="750" windowWidth="24135" windowHeight="19770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!Guide" sheetId="8" r:id="rId1"/>
@@ -35,9 +35,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
-  <si>
-    <t>int</t>
-  </si>
   <si>
     <t>pc_skill_id</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -165,6 +162,10 @@
       </rPr>
       <t>효과의 절대&amp;배율 수치 값을 입력</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_1:int</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -350,7 +351,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -367,6 +368,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -601,7 +605,7 @@
   <sheetData>
     <row r="2" spans="1:11" ht="13.5">
       <c r="A2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.5">
@@ -609,17 +613,17 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -649,7 +653,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -664,67 +668,67 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="13.5" thickBot="1">
       <c r="A4" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">

--- a/Android/ExcelData/SkillLevelUp.xlsx
+++ b/Android/ExcelData/SkillLevelUp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A58E72-4BB0-4983-A7F1-EDB58EB1928E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02457B84-BB6D-422F-9158-E47488EB3522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="750" windowWidth="24135" windowHeight="19770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15420" yWindow="2910" windowWidth="21735" windowHeight="18420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!Guide" sheetId="8" r:id="rId1"/>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>duration_rate</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Skill_Up_Add_Data</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -89,10 +85,6 @@
   </si>
   <si>
     <t>+지속 배율값</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>+지속 확률</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -166,6 +158,14 @@
   </si>
   <si>
     <t>key_1:int</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration_time</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>+지속 시간</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -605,7 +605,7 @@
   <sheetData>
     <row r="2" spans="1:11" ht="13.5">
       <c r="A2" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.5">
@@ -613,17 +613,17 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -653,13 +653,13 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
@@ -668,7 +668,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -676,24 +676,24 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" s="13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -728,7 +728,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6">
